--- a/energy/Heating_Wires/סיכום/התנגדות חוטים.xlsx
+++ b/energy/Heating_Wires/סיכום/התנגדות חוטים.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7140B1A-52B8-41C0-A970-DE04D7780F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC5D22-7306-4E45-A890-BE41221927C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1080" windowWidth="25005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>עובי</t>
   </si>
@@ -37,6 +46,12 @@
   </si>
   <si>
     <t>רוחב (מילימטר)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -354,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -383,14 +398,14 @@
       <c r="A2">
         <v>0.2</v>
       </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -418,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -447,6 +462,53 @@
       </c>
       <c r="D6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/energy/Heating_Wires/סיכום/התנגדות חוטים.xlsx
+++ b/energy/Heating_Wires/סיכום/התנגדות חוטים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BC5D22-7306-4E45-A890-BE41221927C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560B97E-FEBD-4E53-81C0-BC51EF8D4E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>עובי</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>רוחב (מילימטר)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -372,7 +369,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -398,8 +395,8 @@
       <c r="A2">
         <v>0.2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -508,7 +505,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/energy/Heating_Wires/סיכום/התנגדות חוטים.xlsx
+++ b/energy/Heating_Wires/סיכום/התנגדות חוטים.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\git_nat\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560B97E-FEBD-4E53-81C0-BC51EF8D4E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560A6E7-F67C-4066-977F-684DB855747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>עובי</t>
   </si>
@@ -49,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>התנגדות ל-1.7m</t>
+  </si>
+  <si>
+    <t>אורך חוט מטר</t>
   </si>
 </sst>
 </file>
@@ -84,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,144 +378,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="3.125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <f>($I$2*D2)</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0.3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G9" si="0">($I$2*D3)</f>
+        <v>3.4</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4139999999999997</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>0.1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.069</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>0.2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>0.2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.601</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>0.3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>0.3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>4</v>
       </c>
